--- a/classfiers/bottleneck/svm/bottleneck-svm-sigmoid-results.xlsx
+++ b/classfiers/bottleneck/svm/bottleneck-svm-sigmoid-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6409247417609445</v>
+        <v>0.9304773561811506</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3531726512543039</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.8750000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4191214470284237</v>
+        <v>0.9638242894056848</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2782969885773624</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01785714285714286</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.259086188992731</v>
+        <v>0.9981912144702841</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.003571428571428571</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01111111111111111</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="D7" t="n">
-        <v>0.005405405405405406</v>
+        <v>0.5497943485086342</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3901204035227531</v>
+        <v>0.9784985720114239</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/bottleneck/svm/bottleneck-svm-sigmoid-results.xlsx
+++ b/classfiers/bottleneck/svm/bottleneck-svm-sigmoid-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C2" t="n">
-        <v>0.631578947368421</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4897959183673469</v>
+        <v>0.4081632653061224</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9304773561811506</v>
+        <v>0.9669950738916256</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7777777777777778</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8750000000000001</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9638242894056848</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -524,13 +524,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3888888888888889</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9981912144702841</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.4512820512820513</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.42</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5497943485086342</v>
+        <v>0.3179962894248608</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9784985720114239</v>
+        <v>0.9933990147783252</v>
       </c>
     </row>
   </sheetData>
